--- a/j6/ProudBoys-IncriminatingChats.xlsx
+++ b/j6/ProudBoys-IncriminatingChats.xlsx
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Potentially Incriminating Telegram Messages</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+  <si>
+    <t xml:space="preserve">Potentially Incriminating Telegram and Parler Messages</t>
   </si>
   <si>
     <t xml:space="preserve">Date&amp;Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Chat Name</t>
+    <t xml:space="preserve">Source</t>
   </si>
   <si>
     <t xml:space="preserve">Person</t>
@@ -40,32 +40,269 @@
     <t xml:space="preserve">Assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnny Blackbeard [Johnny Stewart]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 6, are we going in as a group? I have guys going even if the frat declines
-It's in the middle of the week and these rallies are stacked on top if each other so we will most likely not be there for the protest portion but the after "party" we will be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSD MAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrotherHunter Jake Phillips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im a big fan of that. We're running a perimeter of 5-2 man grey man security groups at our rally on the 6th to prevent just that. Also told all my attendees to get stab proof shirts if they can afford it, plate carriers if they can't. </t>
+    <t xml:space="preserve">Joe Biggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's time for fucking War if they steal this shit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique Tarrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The media constantly accuses us of wanting to start a civil war. Careful what the fuck you ask for we don't want to start one... but we will sure as fuck finish one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuck Unity. No quarter. Raise the black flag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Biden steals this election, [the Proud Boys] will be political prisoners. We won't go quietly...I promise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bitch. This is war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to remember: We're at war with a virus - not with each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, YOU need to remember the American people are at war with YOU. No Trump...No peace. No quarter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We tried playing nice and by the rules, now you will deal with the monster you created. The spirit of 1776 has resurfaced and has created groups like the Proudboys and we will not be extinguished. We will grow like the flame that fuels us and spread like love that guides us. We are unstoppable, unrelenting and now... unforgiving. Good luck to all you traitors of this country we so deeply love... you're going to need it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Rehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopefully the firing squads are for the traitors that are trying to steal the election from the American people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But we recruit losers who wanna drink. Let's get radical and get real men.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blackbeard (John Charles Stewart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am assuming most of the protest will be at the capital building given what's going on inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YutYut Cowabunga (Charles Donohoe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They want to limit the presence so that they can deny Trump has the People's support. We can't let them succeed. This government is run FOR the People, BY the People....Congress needs a reintroduction to that fact. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of right now... The DC trip will consist of two groups. None of which can be in colors.
+1. The first group of guys have been invited to a special chapter within the organization. If you haven't been invited...please be patient. We are growing the group slowly.
+2. The second group consists of PBs that are just attending the event. You can coordinate with other PBs and do whatever you guys want. Group 1 and group 2 will not have any interaction with each other on the 5th at night and 6th throughout the day. We are running a training exercise at those times. 
+Group 2 is still expected to conduct themselves as gentlemen and always keep themselves in a self defense mindset at all times. They way we do national rallies will change drastically over the course of the next couple months. After the 6th you will have to be part of group 1 to attend national events. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...turn out in record numbers on Jan 6th but this time with a twist... We will not be wearing our traditional Black and Yellow. We will be incognito and we will be spread across downtown DC in smaller teams. And who knows ... we might dress in all BLACK for the occasion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: TARRIO posted a message to the MOSD Prospect Group to notify prospective members of a virtual meeting on December 30 to explain "how this all works." TARRIO advised the group that the MOSD "will have a top down structure" and advised prospects that, "if that's something you're not comfortable with" they should not bother attending the live session. TARRIO advised that  "upper tier leadership" would consist of a three-person "Operations" section led by REHL, PERSON-3 and one other person. TARRIO advised that the "Marketing" section would be led by TARRIO, BIGGS and NORDEAN. TARRIO advised that "second tier" leadership would consist of eight regional members.]
+ANNOUNCEMENT
+Tomorrow night at 9pm we will be having a live session to inform you guys how this all works. Just because you're in here doesn’t mean you will stay in here. The choice will be yours  once you hear what leadership has to say. This chapter will have a top down structure. If that’s something you're not comfortable with...I'll tell you now...don't even watch the live session.
+Upper tier leadership consists of six members that are broken up into two sections, Operations and Marketing. 
+Operations:
+@DasBlackBeard
+@CaptainTrump312
+Rex
+Marketing:
+@NobleLead
+@SSGBiggs69
+@REBELRUFIO
+The second tier will consist of 8 regional members split into two by the Mississippi method. If you’re planning on coming on the 6th you will have two choices. You're either in this group  or you're with your home chapter. Being with your home chapter will not disqualify you from  being in this group. Again the choice is yours. But we are going to be using the 6th as a test. Keep the chatter that's not about this chapter here to a minimum please. And thank you! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominic Pezzola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey boss, [I'm] one of the guys bringing the [decorative] shield down... I'll be in dc w a few other brothers from NY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit in...or fuck off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: REHL warned prospective members that January 6 was going to be a "completely different operation" and that the Proud Boys would not be conducting a "night march and flexing our [arms] and shit."]
+And just, just to throw this out there, like the uh, the dynamics for this entire DC rally are completely different, because the fact that we're, we're not going to be in colors, uh, one of the things I've been really hearing a lot about is like, oh my god, I'm hearing so much this about what's going on DC or that's going to possibly be going on in DC... Guys, look you gotta understand, we're going without colors, so, uh, a lot of, a lot of the fears and dynamics that people are thinking about are just complete bullshit and just ramble, I mean, and realistically like, I... every single rally I've done since like, like 2015, I've heard the same bullshit anyway, so I mean, it, it's, it's, it's just, it's just rumbles, and, and, and arguments. But like, um, while we're in DC and everything, I mean, it's not gonna be the same thing. We're not, we're not gonna be doing like, a Proud Bully fucking, um, you know, eight o'clock in early, uh, march, uh, and, and, and, and flexing our, flexing our guns, and shit. So you guys gotta understand that we're not doing that this time, you know, we're doing a completely different operation and there's, there's going to be a lot of uh... contingencies and, and plans laid out of what we're actually going to do and there's going to be teams, they're gonna be put together to, you know, um, you know, where they're gonna be going and what they're doing, so keep that in mind too, and like, when you tell your guys that kind of thing, um, you know, spread that word a little bit. I mean, don't, don't, don't spread it too far, but you know, spread it to the guys that you plan on bringing and everything, so that we, we can actually work together and, and, and make this make this DC event a little bit more successful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to Eryk-A: “The revolution is important than anything”]
+That's what every waking moment consists of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets bring this new year with one word in mind... Revolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Years Revolution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Of The Bloody East (Aaron Wolkind)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our disposition towards the police needs to be reevaluated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Bertino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fucktheblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake Phillips and Johnny Blackbeard (John Charles Stewart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: On January 3, 2021, members of the MOSD exchanged messages in the MOSD Members Group various  statements about attacking the Capitol. In response to the question, "what would they do [if] 1 million patriots stormed and took the capital building. Shoot into the crowd? I think not," PERSON-3 stated, "They would no nothing because they can do nothing."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake Phillips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So are the normies and "other" attendees going to push thru police lines and storm the capitol buildings? A few million vs A few hundred coptifa should be enough. I saw a few normie groups rush police lines on the 12th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blackbeard (John Charles Stewart), Zach Rehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: On January 3, as efforts for January 6 intensified in the MOSD leadership chat, TARRIO stated in the MOSD Leaders Group that he wanted to wait until January 5 to make final plans. In response, at 7:10 p.m., PERSON-3 posted a voice note to the MOSD Leaders Group in which he stated:
+Well, I mean, the main operating theater should be out in front of the House of Representatives. It should be out in front of the Capitol building. That's where the vote is taking place, and all the objections. So we can ignore the rest of these stages and all that shit, and plan the operations base around the front entrance to the Capitol building. Um, I strongly recommend you use the national mall and not Pennsylvania Avenue, though. It's a wide open space, you can see everything coming from all angles. 
+RHEL responded that the Capitol was a "good start."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to Johnny Blackbeard]: I didn't hear this voice note until now, you want to storm the Capitol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: On January 4, 2021, within one hour of TARRIO's arrest pursuant to a warrant issued by D.C.  Superior Court, Donohoe created a new group on the encrypyed message application for MOSD leadership ("New MOSD Leaders Group") that did not initially include TARRIO. Donohoe then advised the other leaders, "Each one of us should personally clear our history of the MOSD chat." REHL responded, "you gotta manually delete each message from each chat" and then added, "since [TARRIO] knew the cops were for him, hopefully he logged outta" the encrypted messaging service.  Donohoe responded, "Well at least they won't get our boots on ground plans because we are one  step ahead of them."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had originally planned on breaking the guys into teams. Let's start divying them up and getting baofeng channels picked out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YutYut Cowabunga (Charles Donohoe), Zach Rehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Indictment reads: On January 4, 2021, within one hour of TARRIO's arrest pursuant toa warrant issued by D.C. Superior Court, Donohoe created a new group on the encrypted messaging application for MOSD leadership (“New MOSD Leaders Group”) that did not initially include TARRIO. Donohoe then advised the other leaders, “Each one of us should personally clear our history of that MOSD chat.” REHL responded, “you gotta manually delete each message from each chat” and then added, “since [TARRIO] knew the cops were for him, hopefully he logged outta” the encrypted messaging service. Donohoe responded, “Well at least they won't get our boots on ground plans because we are one step ahead of them.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are trying to avoid getting into any shit tonight. Tomorrow's the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm here with rufio and a good group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anybody need coms programmed hit me up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Beard The Immortal (Jeremy Bertino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone needs to meet at the Washington Monument at 10am tomorrow morning! Do not be late! Do not wear colors! Details will be laid out at the pre meeting! Come out at as patriot!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone needs to meet at the Washington Monument at 10am tomorrow morning! Do not be late! Do not wear colors! Details will be laid out at the pre meeting! Come out at as patriot! We will be meeting inside the ropes of the monument on the side facing the whitehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand by for the shared baofeng channel and shared zello channel, no colors, be decentralized and use good judgement until further orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rufio is in charge, cops are the primary threat, don't get caught by them or BLM, don't get drunk until off the street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just had a meeting woth a lot of guys. Info should be coming out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just spoke with Enrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have a plan. I'm with rufio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the plan so I can pass it to the MOSD guys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I gave Enrique a plan. The one I told the guys and he said he had one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Bertino, Aaron Wolkind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aaron Of The Bloody East]: I want to see thousands of normies burn that city to ash today
+[Noble Beard The Immortal] Would be epic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storming the capital right now!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON-1: Push inside! Find some eggs and rotten tomatoes
+PERSON-2 They deploy the mace yet
+DONOHOE: We are trying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stormed the capitol unarmed
+And took it over unarmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got a riot shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we just stormed the fucking Capitol. Took the mother fucking place back. That was so much fun. ... January 6 will be a day in infamy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't fucking leave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After I finish watching this I'll make a statement about my arrest...But for now I'm enjoying the show...Do what must be done. #WeThePeople.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolutionaries are now at the Rayburn building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON: Are we a militia yet?
+TARRIO: Yep
+TARRIO: Make no mistake… We did this…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Bertino, Enrique Tarrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Jeremy Bertino]: Brother. You know we made this happen
+[Jeremy Bertino]: I’m so proud of my country today
+[Enrique Tarrio]: I know
+[Jeremy Bertino]: 1776 motherfucker
+[Enrique Tarrio]: The Winter Palace
+[Jeremy Bertino]: Dude. Did we just influence history??
+[Enrique Tarrio]: Let’s first see how this plays out
+[Jeremy Bertino]: They HAVE to certify today!
+[Jeremy Bertino]: Or it's invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proud Of My Boys and my country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Rehl, Charles Donohoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Person-2]: I did not see a video of anyone I knew breaking the windows or entering the building
+[REHL]: Nah it was just pissed off normies, once we showed up  and started chanting shit, everyone went nuts and that was that
+[DONOHOE]: Def a video of one of our guys smashing out the window with a stolen police riot shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premonition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="M/D/YY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -165,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,7 +439,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,6 +451,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +481,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -303,18 +564,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -344,83 +605,671 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="136.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="12" customFormat="true" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
         <v>44141</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" s="15" customFormat="true" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <v>44159</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>44192.1500115741</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="513.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="109.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
+        <v>44160</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
+        <v>44160</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="198.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="n">
+        <v>44162</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>44162</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="n">
+        <v>44184</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>44185</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>44192</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="455.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>44193</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="976.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="n">
+        <v>44195</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="622.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="n">
+        <v>44195</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="109.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="n">
+        <v>44199</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="n">
+        <v>44199</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="311.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="n">
+        <v>44199</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="235.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="n">
+        <v>43834</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="n">
+        <v>43834</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="n">
+        <v>43835</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="n">
+        <v>43835</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="n">
+        <v>43835</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="56.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="47.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="29.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="29.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="53.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="53.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="53.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="53.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="157.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="118.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="MOSD"/>
-    <hyperlink ref="B5" r:id="rId2" display="MOSD MAIN"/>
+    <hyperlink ref="B5" r:id="rId1" display="Parler"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
